--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -61381,7 +61381,9 @@
           <t>2025-09-09</t>
         </is>
       </c>
-      <c r="B6095" t="inlineStr"/>
+      <c r="B6095" t="n">
+        <v>0.609</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6095"/>
+  <dimension ref="A1:B6097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61385,6 +61385,26 @@
         <v>0.609</v>
       </c>
     </row>
+    <row r="6096">
+      <c r="A6096" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B6096" t="n">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="6097">
+      <c r="A6097" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B6097" t="n">
+        <v>0.658</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6097"/>
+  <dimension ref="A1:B6098"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61405,6 +61405,16 @@
         <v>0.658</v>
       </c>
     </row>
+    <row r="6098">
+      <c r="A6098" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B6098" t="n">
+        <v>0.706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6098"/>
+  <dimension ref="A1:B6099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61415,6 +61415,16 @@
         <v>0.706</v>
       </c>
     </row>
+    <row r="6099">
+      <c r="A6099" t="inlineStr">
+        <is>
+          <t>2025-09-13</t>
+        </is>
+      </c>
+      <c r="B6099" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6099"/>
+  <dimension ref="A1:B6100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61425,6 +61425,14 @@
         <v>0.7</v>
       </c>
     </row>
+    <row r="6100">
+      <c r="A6100" t="inlineStr">
+        <is>
+          <t>2025-09-14</t>
+        </is>
+      </c>
+      <c r="B6100" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6100"/>
+  <dimension ref="A1:B6101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61431,7 +61431,19 @@
           <t>2025-09-14</t>
         </is>
       </c>
-      <c r="B6100" t="inlineStr"/>
+      <c r="B6100" t="n">
+        <v>0.6850000000000001</v>
+      </c>
+    </row>
+    <row r="6101">
+      <c r="A6101" t="inlineStr">
+        <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B6101" t="n">
+        <v>0.6850000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6101"/>
+  <dimension ref="A1:B6102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61445,6 +61445,16 @@
         <v>0.6850000000000001</v>
       </c>
     </row>
+    <row r="6102">
+      <c r="A6102" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="B6102" t="n">
+        <v>0.712</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6102"/>
+  <dimension ref="A1:B6103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61455,6 +61455,14 @@
         <v>0.712</v>
       </c>
     </row>
+    <row r="6103">
+      <c r="A6103" t="inlineStr">
+        <is>
+          <t>2025-09-17</t>
+        </is>
+      </c>
+      <c r="B6103" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -61461,7 +61461,9 @@
           <t>2025-09-17</t>
         </is>
       </c>
-      <c r="B6103" t="inlineStr"/>
+      <c r="B6103" t="n">
+        <v>0.704</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6103"/>
+  <dimension ref="A1:B6104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61465,6 +61465,16 @@
         <v>0.704</v>
       </c>
     </row>
+    <row r="6104">
+      <c r="A6104" t="inlineStr">
+        <is>
+          <t>2025-09-18</t>
+        </is>
+      </c>
+      <c r="B6104" t="n">
+        <v>0.711</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6104"/>
+  <dimension ref="A1:B6105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61475,6 +61475,16 @@
         <v>0.711</v>
       </c>
     </row>
+    <row r="6105">
+      <c r="A6105" t="inlineStr">
+        <is>
+          <t>2025-09-19</t>
+        </is>
+      </c>
+      <c r="B6105" t="n">
+        <v>0.676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6105"/>
+  <dimension ref="A1:B6106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61485,6 +61485,16 @@
         <v>0.676</v>
       </c>
     </row>
+    <row r="6106">
+      <c r="A6106" t="inlineStr">
+        <is>
+          <t>2025-09-20</t>
+        </is>
+      </c>
+      <c r="B6106" t="n">
+        <v>0.678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6106"/>
+  <dimension ref="A1:B6107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61495,6 +61495,14 @@
         <v>0.678</v>
       </c>
     </row>
+    <row r="6107">
+      <c r="A6107" t="inlineStr">
+        <is>
+          <t>2025-09-21</t>
+        </is>
+      </c>
+      <c r="B6107" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -61501,7 +61501,9 @@
           <t>2025-09-21</t>
         </is>
       </c>
-      <c r="B6107" t="inlineStr"/>
+      <c r="B6107" t="n">
+        <v>0.667</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6107"/>
+  <dimension ref="A1:B6109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61505,6 +61505,24 @@
         <v>0.667</v>
       </c>
     </row>
+    <row r="6108">
+      <c r="A6108" t="inlineStr">
+        <is>
+          <t>2025-09-22</t>
+        </is>
+      </c>
+      <c r="B6108" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="6109">
+      <c r="A6109" t="inlineStr">
+        <is>
+          <t>2025-09-23</t>
+        </is>
+      </c>
+      <c r="B6109" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -61521,7 +61521,9 @@
           <t>2025-09-23</t>
         </is>
       </c>
-      <c r="B6109" t="inlineStr"/>
+      <c r="B6109" t="n">
+        <v>0.591</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6109"/>
+  <dimension ref="A1:B6110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61525,6 +61525,16 @@
         <v>0.591</v>
       </c>
     </row>
+    <row r="6110">
+      <c r="A6110" t="inlineStr">
+        <is>
+          <t>2025-09-24</t>
+        </is>
+      </c>
+      <c r="B6110" t="n">
+        <v>0.617</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6110"/>
+  <dimension ref="A1:B6111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61535,6 +61535,16 @@
         <v>0.617</v>
       </c>
     </row>
+    <row r="6111">
+      <c r="A6111" t="inlineStr">
+        <is>
+          <t>2025-09-25</t>
+        </is>
+      </c>
+      <c r="B6111" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6111"/>
+  <dimension ref="A1:B6112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61545,6 +61545,16 @@
         <v>0.519</v>
       </c>
     </row>
+    <row r="6112">
+      <c r="A6112" t="inlineStr">
+        <is>
+          <t>2025-09-26</t>
+        </is>
+      </c>
+      <c r="B6112" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6112"/>
+  <dimension ref="A1:B6113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61555,6 +61555,16 @@
         <v>0.529</v>
       </c>
     </row>
+    <row r="6113">
+      <c r="A6113" t="inlineStr">
+        <is>
+          <t>2025-09-27</t>
+        </is>
+      </c>
+      <c r="B6113" t="n">
+        <v>0.528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6113"/>
+  <dimension ref="A1:B6114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61565,6 +61565,16 @@
         <v>0.528</v>
       </c>
     </row>
+    <row r="6114">
+      <c r="A6114" t="inlineStr">
+        <is>
+          <t>2025-09-28</t>
+        </is>
+      </c>
+      <c r="B6114" t="n">
+        <v>0.585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6114"/>
+  <dimension ref="A1:B6115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61575,6 +61575,16 @@
         <v>0.585</v>
       </c>
     </row>
+    <row r="6115">
+      <c r="A6115" t="inlineStr">
+        <is>
+          <t>2025-09-29</t>
+        </is>
+      </c>
+      <c r="B6115" t="n">
+        <v>0.632</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6115"/>
+  <dimension ref="A1:B6116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61585,6 +61585,16 @@
         <v>0.632</v>
       </c>
     </row>
+    <row r="6116">
+      <c r="A6116" t="inlineStr">
+        <is>
+          <t>2025-09-30</t>
+        </is>
+      </c>
+      <c r="B6116" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6116"/>
+  <dimension ref="A1:B6117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61595,6 +61595,16 @@
         <v>0.62</v>
       </c>
     </row>
+    <row r="6117">
+      <c r="A6117" t="inlineStr">
+        <is>
+          <t>2025-10-01</t>
+        </is>
+      </c>
+      <c r="B6117" t="n">
+        <v>0.708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6117"/>
+  <dimension ref="A1:B6118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61605,6 +61605,14 @@
         <v>0.708</v>
       </c>
     </row>
+    <row r="6118">
+      <c r="A6118" t="inlineStr">
+        <is>
+          <t>2025-10-02</t>
+        </is>
+      </c>
+      <c r="B6118" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6118"/>
+  <dimension ref="A1:B6119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61611,7 +61611,19 @@
           <t>2025-10-02</t>
         </is>
       </c>
-      <c r="B6118" t="inlineStr"/>
+      <c r="B6118" t="n">
+        <v>0.781</v>
+      </c>
+    </row>
+    <row r="6119">
+      <c r="A6119" t="inlineStr">
+        <is>
+          <t>2025-10-03</t>
+        </is>
+      </c>
+      <c r="B6119" t="n">
+        <v>0.78</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6119"/>
+  <dimension ref="A1:B6120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61625,6 +61625,16 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="6120">
+      <c r="A6120" t="inlineStr">
+        <is>
+          <t>2025-10-04</t>
+        </is>
+      </c>
+      <c r="B6120" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6120"/>
+  <dimension ref="A1:B6121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61635,6 +61635,16 @@
         <v>0.78</v>
       </c>
     </row>
+    <row r="6121">
+      <c r="A6121" t="inlineStr">
+        <is>
+          <t>2025-10-05</t>
+        </is>
+      </c>
+      <c r="B6121" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6121"/>
+  <dimension ref="A1:B6122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61192,7 +61192,7 @@
         </is>
       </c>
       <c r="B6076" t="n">
-        <v>0.763</v>
+        <v>2.351</v>
       </c>
     </row>
     <row r="6077">
@@ -61202,7 +61202,7 @@
         </is>
       </c>
       <c r="B6077" t="n">
-        <v>0.729</v>
+        <v>2.275</v>
       </c>
     </row>
     <row r="6078">
@@ -61212,7 +61212,7 @@
         </is>
       </c>
       <c r="B6078" t="n">
-        <v>0.6889999999999999</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="6079">
@@ -61232,7 +61232,7 @@
         </is>
       </c>
       <c r="B6080" t="n">
-        <v>0.65</v>
+        <v>2.286</v>
       </c>
     </row>
     <row r="6081">
@@ -61242,7 +61242,7 @@
         </is>
       </c>
       <c r="B6081" t="n">
-        <v>0.634</v>
+        <v>2.165</v>
       </c>
     </row>
     <row r="6082">
@@ -61252,7 +61252,7 @@
         </is>
       </c>
       <c r="B6082" t="n">
-        <v>0.659</v>
+        <v>2.225</v>
       </c>
     </row>
     <row r="6083">
@@ -61352,7 +61352,7 @@
         </is>
       </c>
       <c r="B6092" t="n">
-        <v>0.584</v>
+        <v>2.129</v>
       </c>
     </row>
     <row r="6093">
@@ -61362,7 +61362,7 @@
         </is>
       </c>
       <c r="B6093" t="n">
-        <v>0.607</v>
+        <v>2.127</v>
       </c>
     </row>
     <row r="6094">
@@ -61372,7 +61372,7 @@
         </is>
       </c>
       <c r="B6094" t="n">
-        <v>0.624</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="6095">
@@ -61382,7 +61382,7 @@
         </is>
       </c>
       <c r="B6095" t="n">
-        <v>0.609</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="6096">
@@ -61392,7 +61392,7 @@
         </is>
       </c>
       <c r="B6096" t="n">
-        <v>0.662</v>
+        <v>2.159</v>
       </c>
     </row>
     <row r="6097">
@@ -61402,7 +61402,7 @@
         </is>
       </c>
       <c r="B6097" t="n">
-        <v>0.658</v>
+        <v>2.247</v>
       </c>
     </row>
     <row r="6098">
@@ -61412,7 +61412,7 @@
         </is>
       </c>
       <c r="B6098" t="n">
-        <v>0.706</v>
+        <v>2.266</v>
       </c>
     </row>
     <row r="6099">
@@ -61422,7 +61422,7 @@
         </is>
       </c>
       <c r="B6099" t="n">
-        <v>0.7</v>
+        <v>2.317</v>
       </c>
     </row>
     <row r="6100">
@@ -61432,7 +61432,7 @@
         </is>
       </c>
       <c r="B6100" t="n">
-        <v>0.6850000000000001</v>
+        <v>2.311</v>
       </c>
     </row>
     <row r="6101">
@@ -61442,7 +61442,7 @@
         </is>
       </c>
       <c r="B6101" t="n">
-        <v>0.6850000000000001</v>
+        <v>2.313</v>
       </c>
     </row>
     <row r="6102">
@@ -61452,7 +61452,7 @@
         </is>
       </c>
       <c r="B6102" t="n">
-        <v>0.712</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="6103">
@@ -61462,7 +61462,7 @@
         </is>
       </c>
       <c r="B6103" t="n">
-        <v>0.704</v>
+        <v>2.333</v>
       </c>
     </row>
     <row r="6104">
@@ -61472,7 +61472,7 @@
         </is>
       </c>
       <c r="B6104" t="n">
-        <v>0.711</v>
+        <v>2.301</v>
       </c>
     </row>
     <row r="6105">
@@ -61482,7 +61482,7 @@
         </is>
       </c>
       <c r="B6105" t="n">
-        <v>0.676</v>
+        <v>2.338</v>
       </c>
     </row>
     <row r="6106">
@@ -61492,7 +61492,7 @@
         </is>
       </c>
       <c r="B6106" t="n">
-        <v>0.678</v>
+        <v>2.269</v>
       </c>
     </row>
     <row r="6107">
@@ -61502,7 +61502,7 @@
         </is>
       </c>
       <c r="B6107" t="n">
-        <v>0.667</v>
+        <v>2.277</v>
       </c>
     </row>
     <row r="6108">
@@ -61512,7 +61512,7 @@
         </is>
       </c>
       <c r="B6108" t="n">
-        <v>0.609</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6109">
@@ -61522,7 +61522,7 @@
         </is>
       </c>
       <c r="B6109" t="n">
-        <v>0.591</v>
+        <v>2.164</v>
       </c>
     </row>
     <row r="6110">
@@ -61532,7 +61532,7 @@
         </is>
       </c>
       <c r="B6110" t="n">
-        <v>0.617</v>
+        <v>2.058</v>
       </c>
     </row>
     <row r="6111">
@@ -61542,7 +61542,7 @@
         </is>
       </c>
       <c r="B6111" t="n">
-        <v>0.519</v>
+        <v>2.176</v>
       </c>
     </row>
     <row r="6112">
@@ -61552,7 +61552,7 @@
         </is>
       </c>
       <c r="B6112" t="n">
-        <v>0.529</v>
+        <v>2.028</v>
       </c>
     </row>
     <row r="6113">
@@ -61562,7 +61562,7 @@
         </is>
       </c>
       <c r="B6113" t="n">
-        <v>0.528</v>
+        <v>2.027</v>
       </c>
     </row>
     <row r="6114">
@@ -61572,7 +61572,7 @@
         </is>
       </c>
       <c r="B6114" t="n">
-        <v>0.585</v>
+        <v>2.025</v>
       </c>
     </row>
     <row r="6115">
@@ -61582,7 +61582,7 @@
         </is>
       </c>
       <c r="B6115" t="n">
-        <v>0.632</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="6116">
@@ -61592,7 +61592,7 @@
         </is>
       </c>
       <c r="B6116" t="n">
-        <v>0.62</v>
+        <v>2.184</v>
       </c>
     </row>
     <row r="6117">
@@ -61602,7 +61602,7 @@
         </is>
       </c>
       <c r="B6117" t="n">
-        <v>0.708</v>
+        <v>2.178</v>
       </c>
     </row>
     <row r="6118">
@@ -61612,7 +61612,7 @@
         </is>
       </c>
       <c r="B6118" t="n">
-        <v>0.781</v>
+        <v>2.293</v>
       </c>
     </row>
     <row r="6119">
@@ -61622,7 +61622,7 @@
         </is>
       </c>
       <c r="B6119" t="n">
-        <v>0.78</v>
+        <v>2.381</v>
       </c>
     </row>
     <row r="6120">
@@ -61632,7 +61632,7 @@
         </is>
       </c>
       <c r="B6120" t="n">
-        <v>0.78</v>
+        <v>2.453</v>
       </c>
     </row>
     <row r="6121">
@@ -61642,7 +61642,17 @@
         </is>
       </c>
       <c r="B6121" t="n">
-        <v>0.8</v>
+        <v>2.444</v>
+      </c>
+    </row>
+    <row r="6122">
+      <c r="A6122" t="inlineStr">
+        <is>
+          <t>2025-10-06</t>
+        </is>
+      </c>
+      <c r="B6122" t="n">
+        <v>2.463</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6122"/>
+  <dimension ref="A1:B6123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -58012,7 +58012,7 @@
         </is>
       </c>
       <c r="B5758" t="n">
-        <v>0.434</v>
+        <v>0.468</v>
       </c>
     </row>
     <row r="5759">
@@ -58022,7 +58022,7 @@
         </is>
       </c>
       <c r="B5759" t="n">
-        <v>0.372</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="5760">
@@ -58032,7 +58032,7 @@
         </is>
       </c>
       <c r="B5760" t="n">
-        <v>0.356</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="5761">
@@ -58042,7 +58042,7 @@
         </is>
       </c>
       <c r="B5761" t="n">
-        <v>0.441</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="5762">
@@ -58052,7 +58052,7 @@
         </is>
       </c>
       <c r="B5762" t="n">
-        <v>0.47</v>
+        <v>0.441</v>
       </c>
     </row>
     <row r="5763">
@@ -58062,7 +58062,7 @@
         </is>
       </c>
       <c r="B5763" t="n">
-        <v>0.451</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5764">
@@ -58072,7 +58072,7 @@
         </is>
       </c>
       <c r="B5764" t="n">
-        <v>0.578</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="5765">
@@ -58082,7 +58082,7 @@
         </is>
       </c>
       <c r="B5765" t="n">
-        <v>0.604</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="5766">
@@ -58092,7 +58092,7 @@
         </is>
       </c>
       <c r="B5766" t="n">
-        <v>0.628</v>
+        <v>0.604</v>
       </c>
     </row>
     <row r="5767">
@@ -58102,7 +58102,7 @@
         </is>
       </c>
       <c r="B5767" t="n">
-        <v>0.613</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="5768">
@@ -58112,7 +58112,7 @@
         </is>
       </c>
       <c r="B5768" t="n">
-        <v>0.65</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="5769">
@@ -58122,7 +58122,7 @@
         </is>
       </c>
       <c r="B5769" t="n">
-        <v>0.646</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5770">
@@ -58132,7 +58132,7 @@
         </is>
       </c>
       <c r="B5770" t="n">
-        <v>0.664</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="5771">
@@ -58142,7 +58142,7 @@
         </is>
       </c>
       <c r="B5771" t="n">
-        <v>0.599</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="5772">
@@ -58152,7 +58152,7 @@
         </is>
       </c>
       <c r="B5772" t="n">
-        <v>0.597</v>
+        <v>0.599</v>
       </c>
     </row>
     <row r="5773">
@@ -58162,7 +58162,7 @@
         </is>
       </c>
       <c r="B5773" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="5774">
@@ -58172,7 +58172,7 @@
         </is>
       </c>
       <c r="B5774" t="n">
-        <v>0.619</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="5775">
@@ -58182,7 +58182,7 @@
         </is>
       </c>
       <c r="B5775" t="n">
-        <v>0.548</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="5776">
@@ -58192,7 +58192,7 @@
         </is>
       </c>
       <c r="B5776" t="n">
-        <v>0.576</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="5777">
@@ -58202,7 +58202,7 @@
         </is>
       </c>
       <c r="B5777" t="n">
-        <v>0.612</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="5778">
@@ -58212,7 +58212,7 @@
         </is>
       </c>
       <c r="B5778" t="n">
-        <v>0.676</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="5779">
@@ -58222,7 +58222,7 @@
         </is>
       </c>
       <c r="B5779" t="n">
-        <v>0.769</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="5780">
@@ -58232,7 +58232,7 @@
         </is>
       </c>
       <c r="B5780" t="n">
-        <v>0.757</v>
+        <v>0.769</v>
       </c>
     </row>
     <row r="5781">
@@ -58242,7 +58242,7 @@
         </is>
       </c>
       <c r="B5781" t="n">
-        <v>0.681</v>
+        <v>0.757</v>
       </c>
     </row>
     <row r="5782">
@@ -58252,7 +58252,7 @@
         </is>
       </c>
       <c r="B5782" t="n">
-        <v>0.647</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="5783">
@@ -58262,7 +58262,7 @@
         </is>
       </c>
       <c r="B5783" t="n">
-        <v>0.637</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="5784">
@@ -58272,7 +58272,7 @@
         </is>
       </c>
       <c r="B5784" t="n">
-        <v>0.618</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="5785">
@@ -58282,7 +58282,7 @@
         </is>
       </c>
       <c r="B5785" t="n">
-        <v>0.58</v>
+        <v>0.618</v>
       </c>
     </row>
     <row r="5786">
@@ -58292,7 +58292,7 @@
         </is>
       </c>
       <c r="B5786" t="n">
-        <v>0.643</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5787">
@@ -58302,7 +58302,7 @@
         </is>
       </c>
       <c r="B5787" t="n">
-        <v>0.843</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="5788">
@@ -58312,7 +58312,7 @@
         </is>
       </c>
       <c r="B5788" t="n">
-        <v>0.846</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="5789">
@@ -58322,7 +58322,7 @@
         </is>
       </c>
       <c r="B5789" t="n">
-        <v>0.858</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="5790">
@@ -58332,7 +58332,7 @@
         </is>
       </c>
       <c r="B5790" t="n">
-        <v>0.865</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="5791">
@@ -58342,7 +58342,7 @@
         </is>
       </c>
       <c r="B5791" t="n">
-        <v>0.975</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="5792">
@@ -58352,7 +58352,7 @@
         </is>
       </c>
       <c r="B5792" t="n">
-        <v>1.207</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="5793">
@@ -58362,7 +58362,7 @@
         </is>
       </c>
       <c r="B5793" t="n">
-        <v>1.167</v>
+        <v>1.207</v>
       </c>
     </row>
     <row r="5794">
@@ -58372,7 +58372,7 @@
         </is>
       </c>
       <c r="B5794" t="n">
-        <v>1.215</v>
+        <v>1.167</v>
       </c>
     </row>
     <row r="5795">
@@ -58382,7 +58382,7 @@
         </is>
       </c>
       <c r="B5795" t="n">
-        <v>1.109</v>
+        <v>1.215</v>
       </c>
     </row>
     <row r="5796">
@@ -58392,7 +58392,7 @@
         </is>
       </c>
       <c r="B5796" t="n">
-        <v>1.208</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="5797">
@@ -58402,7 +58402,7 @@
         </is>
       </c>
       <c r="B5797" t="n">
-        <v>1.188</v>
+        <v>1.208</v>
       </c>
     </row>
     <row r="5798">
@@ -58412,7 +58412,7 @@
         </is>
       </c>
       <c r="B5798" t="n">
-        <v>1.161</v>
+        <v>1.188</v>
       </c>
     </row>
     <row r="5799">
@@ -58422,7 +58422,7 @@
         </is>
       </c>
       <c r="B5799" t="n">
-        <v>1.178</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="5800">
@@ -58432,7 +58432,7 @@
         </is>
       </c>
       <c r="B5800" t="n">
-        <v>1.206</v>
+        <v>1.178</v>
       </c>
     </row>
     <row r="5801">
@@ -58442,7 +58442,7 @@
         </is>
       </c>
       <c r="B5801" t="n">
-        <v>1.243</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="5802">
@@ -58452,7 +58452,7 @@
         </is>
       </c>
       <c r="B5802" t="n">
-        <v>1.319</v>
+        <v>1.243</v>
       </c>
     </row>
     <row r="5803">
@@ -58462,7 +58462,7 @@
         </is>
       </c>
       <c r="B5803" t="n">
-        <v>1.31</v>
+        <v>1.319</v>
       </c>
     </row>
     <row r="5804">
@@ -58472,7 +58472,7 @@
         </is>
       </c>
       <c r="B5804" t="n">
-        <v>1.268</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5805">
@@ -58482,7 +58482,7 @@
         </is>
       </c>
       <c r="B5805" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
     </row>
     <row r="5806">
@@ -58492,7 +58492,7 @@
         </is>
       </c>
       <c r="B5806" t="n">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="5807">
@@ -58502,7 +58502,7 @@
         </is>
       </c>
       <c r="B5807" t="n">
-        <v>1.093</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5808">
@@ -58512,7 +58512,7 @@
         </is>
       </c>
       <c r="B5808" t="n">
-        <v>1.195</v>
+        <v>1.093</v>
       </c>
     </row>
     <row r="5809">
@@ -58522,7 +58522,7 @@
         </is>
       </c>
       <c r="B5809" t="n">
-        <v>1.181</v>
+        <v>1.195</v>
       </c>
     </row>
     <row r="5810">
@@ -58532,7 +58532,7 @@
         </is>
       </c>
       <c r="B5810" t="n">
-        <v>1.217</v>
+        <v>1.181</v>
       </c>
     </row>
     <row r="5811">
@@ -58542,7 +58542,7 @@
         </is>
       </c>
       <c r="B5811" t="n">
-        <v>1.19</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="5812">
@@ -58552,7 +58552,7 @@
         </is>
       </c>
       <c r="B5812" t="n">
-        <v>1.213</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="5813">
@@ -58562,7 +58562,7 @@
         </is>
       </c>
       <c r="B5813" t="n">
-        <v>1.159</v>
+        <v>1.213</v>
       </c>
     </row>
     <row r="5814">
@@ -58572,7 +58572,7 @@
         </is>
       </c>
       <c r="B5814" t="n">
-        <v>1.158</v>
+        <v>1.159</v>
       </c>
     </row>
     <row r="5815">
@@ -58582,7 +58582,7 @@
         </is>
       </c>
       <c r="B5815" t="n">
-        <v>1.222</v>
+        <v>1.158</v>
       </c>
     </row>
     <row r="5816">
@@ -58592,7 +58592,7 @@
         </is>
       </c>
       <c r="B5816" t="n">
-        <v>1.148</v>
+        <v>1.222</v>
       </c>
     </row>
     <row r="5817">
@@ -58602,7 +58602,7 @@
         </is>
       </c>
       <c r="B5817" t="n">
-        <v>1.204</v>
+        <v>1.148</v>
       </c>
     </row>
     <row r="5818">
@@ -58612,7 +58612,7 @@
         </is>
       </c>
       <c r="B5818" t="n">
-        <v>1.201</v>
+        <v>1.204</v>
       </c>
     </row>
     <row r="5819">
@@ -58622,7 +58622,7 @@
         </is>
       </c>
       <c r="B5819" t="n">
-        <v>1.219</v>
+        <v>1.201</v>
       </c>
     </row>
     <row r="5820">
@@ -58632,7 +58632,7 @@
         </is>
       </c>
       <c r="B5820" t="n">
-        <v>1.113</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="5821">
@@ -58642,7 +58642,7 @@
         </is>
       </c>
       <c r="B5821" t="n">
-        <v>1.089</v>
+        <v>1.113</v>
       </c>
     </row>
     <row r="5822">
@@ -58652,7 +58652,7 @@
         </is>
       </c>
       <c r="B5822" t="n">
-        <v>1.191</v>
+        <v>1.089</v>
       </c>
     </row>
     <row r="5823">
@@ -58662,7 +58662,7 @@
         </is>
       </c>
       <c r="B5823" t="n">
-        <v>1.156</v>
+        <v>1.191</v>
       </c>
     </row>
     <row r="5824">
@@ -58672,7 +58672,7 @@
         </is>
       </c>
       <c r="B5824" t="n">
-        <v>1.179</v>
+        <v>1.156</v>
       </c>
     </row>
     <row r="5825">
@@ -58682,7 +58682,7 @@
         </is>
       </c>
       <c r="B5825" t="n">
-        <v>1.178</v>
+        <v>1.179</v>
       </c>
     </row>
     <row r="5826">
@@ -58692,7 +58692,7 @@
         </is>
       </c>
       <c r="B5826" t="n">
-        <v>1.251</v>
+        <v>1.178</v>
       </c>
     </row>
     <row r="5827">
@@ -58702,7 +58702,7 @@
         </is>
       </c>
       <c r="B5827" t="n">
-        <v>1.269</v>
+        <v>1.251</v>
       </c>
     </row>
     <row r="5828">
@@ -58712,7 +58712,7 @@
         </is>
       </c>
       <c r="B5828" t="n">
-        <v>1.261</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="5829">
@@ -58722,7 +58722,7 @@
         </is>
       </c>
       <c r="B5829" t="n">
-        <v>1.116</v>
+        <v>1.261</v>
       </c>
     </row>
     <row r="5830">
@@ -58732,7 +58732,7 @@
         </is>
       </c>
       <c r="B5830" t="n">
-        <v>1.029</v>
+        <v>1.116</v>
       </c>
     </row>
     <row r="5831">
@@ -58742,7 +58742,7 @@
         </is>
       </c>
       <c r="B5831" t="n">
-        <v>1.018</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="5832">
@@ -58752,7 +58752,7 @@
         </is>
       </c>
       <c r="B5832" t="n">
-        <v>1.004</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="5833">
@@ -58762,7 +58762,7 @@
         </is>
       </c>
       <c r="B5833" t="n">
-        <v>0.9429999999999999</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="5834">
@@ -58772,7 +58772,7 @@
         </is>
       </c>
       <c r="B5834" t="n">
-        <v>0.92</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="5835">
@@ -58782,7 +58782,7 @@
         </is>
       </c>
       <c r="B5835" t="n">
-        <v>1.011</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5836">
@@ -58792,7 +58792,7 @@
         </is>
       </c>
       <c r="B5836" t="n">
-        <v>1.025</v>
+        <v>1.011</v>
       </c>
     </row>
     <row r="5837">
@@ -58802,7 +58802,7 @@
         </is>
       </c>
       <c r="B5837" t="n">
-        <v>0.928</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="5838">
@@ -58812,7 +58812,7 @@
         </is>
       </c>
       <c r="B5838" t="n">
-        <v>0.886</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="5839">
@@ -58822,7 +58822,7 @@
         </is>
       </c>
       <c r="B5839" t="n">
-        <v>0.909</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="5840">
@@ -58832,7 +58832,7 @@
         </is>
       </c>
       <c r="B5840" t="n">
-        <v>0.861</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="5841">
@@ -58842,7 +58842,7 @@
         </is>
       </c>
       <c r="B5841" t="n">
-        <v>0.828</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="5842">
@@ -58852,7 +58852,7 @@
         </is>
       </c>
       <c r="B5842" t="n">
-        <v>0.846</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="5843">
@@ -58862,7 +58862,7 @@
         </is>
       </c>
       <c r="B5843" t="n">
-        <v>0.871</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="5844">
@@ -58872,7 +58872,7 @@
         </is>
       </c>
       <c r="B5844" t="n">
-        <v>0.93</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="5845">
@@ -58882,7 +58882,7 @@
         </is>
       </c>
       <c r="B5845" t="n">
-        <v>0.961</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5846">
@@ -58892,7 +58892,7 @@
         </is>
       </c>
       <c r="B5846" t="n">
-        <v>0.962</v>
+        <v>0.961</v>
       </c>
     </row>
     <row r="5847">
@@ -58902,7 +58902,7 @@
         </is>
       </c>
       <c r="B5847" t="n">
-        <v>0.965</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="5848">
@@ -58912,7 +58912,7 @@
         </is>
       </c>
       <c r="B5848" t="n">
-        <v>1.055</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="5849">
@@ -58922,7 +58922,7 @@
         </is>
       </c>
       <c r="B5849" t="n">
-        <v>0.917</v>
+        <v>1.055</v>
       </c>
     </row>
     <row r="5850">
@@ -58932,7 +58932,7 @@
         </is>
       </c>
       <c r="B5850" t="n">
-        <v>0.865</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="5851">
@@ -58942,7 +58942,7 @@
         </is>
       </c>
       <c r="B5851" t="n">
-        <v>0.792</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="5852">
@@ -58952,7 +58952,7 @@
         </is>
       </c>
       <c r="B5852" t="n">
-        <v>0.855</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="5853">
@@ -58962,7 +58962,7 @@
         </is>
       </c>
       <c r="B5853" t="n">
-        <v>0.85</v>
+        <v>0.855</v>
       </c>
     </row>
     <row r="5854">
@@ -58972,7 +58972,7 @@
         </is>
       </c>
       <c r="B5854" t="n">
-        <v>0.842</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5855">
@@ -58982,7 +58982,7 @@
         </is>
       </c>
       <c r="B5855" t="n">
-        <v>0.841</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="5856">
@@ -58992,7 +58992,7 @@
         </is>
       </c>
       <c r="B5856" t="n">
-        <v>0.896</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="5857">
@@ -59002,7 +59002,7 @@
         </is>
       </c>
       <c r="B5857" t="n">
-        <v>0.983</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="5858">
@@ -59012,7 +59012,7 @@
         </is>
       </c>
       <c r="B5858" t="n">
-        <v>0.972</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5859">
@@ -59022,7 +59022,7 @@
         </is>
       </c>
       <c r="B5859" t="n">
-        <v>1.072</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="5860">
@@ -59032,7 +59032,7 @@
         </is>
       </c>
       <c r="B5860" t="n">
-        <v>1.071</v>
+        <v>1.072</v>
       </c>
     </row>
     <row r="5861">
@@ -59042,7 +59042,7 @@
         </is>
       </c>
       <c r="B5861" t="n">
-        <v>0.983</v>
+        <v>1.071</v>
       </c>
     </row>
     <row r="5862">
@@ -59052,7 +59052,7 @@
         </is>
       </c>
       <c r="B5862" t="n">
-        <v>1.019</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5863">
@@ -59062,7 +59062,7 @@
         </is>
       </c>
       <c r="B5863" t="n">
-        <v>1.095</v>
+        <v>1.019</v>
       </c>
     </row>
     <row r="5864">
@@ -59072,7 +59072,7 @@
         </is>
       </c>
       <c r="B5864" t="n">
-        <v>1.033</v>
+        <v>1.095</v>
       </c>
     </row>
     <row r="5865">
@@ -59082,7 +59082,7 @@
         </is>
       </c>
       <c r="B5865" t="n">
-        <v>1.029</v>
+        <v>1.033</v>
       </c>
     </row>
     <row r="5866">
@@ -59092,7 +59092,7 @@
         </is>
       </c>
       <c r="B5866" t="n">
-        <v>1.039</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="5867">
@@ -59102,7 +59102,7 @@
         </is>
       </c>
       <c r="B5867" t="n">
-        <v>1.041</v>
+        <v>1.039</v>
       </c>
     </row>
     <row r="5868">
@@ -59112,7 +59112,7 @@
         </is>
       </c>
       <c r="B5868" t="n">
-        <v>0.99</v>
+        <v>1.041</v>
       </c>
     </row>
     <row r="5869">
@@ -59122,7 +59122,7 @@
         </is>
       </c>
       <c r="B5869" t="n">
-        <v>0.963</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="5870">
@@ -59132,7 +59132,7 @@
         </is>
       </c>
       <c r="B5870" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.963</v>
       </c>
     </row>
     <row r="5871">
@@ -59142,7 +59142,7 @@
         </is>
       </c>
       <c r="B5871" t="n">
-        <v>1.008</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="5872">
@@ -59152,7 +59152,7 @@
         </is>
       </c>
       <c r="B5872" t="n">
-        <v>1.03</v>
+        <v>1.008</v>
       </c>
     </row>
     <row r="5873">
@@ -59162,7 +59162,7 @@
         </is>
       </c>
       <c r="B5873" t="n">
-        <v>0.962</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5874">
@@ -59172,7 +59172,7 @@
         </is>
       </c>
       <c r="B5874" t="n">
-        <v>0.919</v>
+        <v>0.962</v>
       </c>
     </row>
     <row r="5875">
@@ -59182,7 +59182,7 @@
         </is>
       </c>
       <c r="B5875" t="n">
-        <v>0.837</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="5876">
@@ -59192,7 +59192,7 @@
         </is>
       </c>
       <c r="B5876" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="5877">
@@ -59202,7 +59202,7 @@
         </is>
       </c>
       <c r="B5877" t="n">
-        <v>0.839</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="5878">
@@ -59212,7 +59212,7 @@
         </is>
       </c>
       <c r="B5878" t="n">
-        <v>0.801</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="5879">
@@ -59222,7 +59222,7 @@
         </is>
       </c>
       <c r="B5879" t="n">
-        <v>0.797</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="5880">
@@ -59232,7 +59232,7 @@
         </is>
       </c>
       <c r="B5880" t="n">
-        <v>0.792</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="5881">
@@ -59242,7 +59242,7 @@
         </is>
       </c>
       <c r="B5881" t="n">
-        <v>0.796</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="5882">
@@ -59252,7 +59252,7 @@
         </is>
       </c>
       <c r="B5882" t="n">
-        <v>0.784</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="5883">
@@ -59262,7 +59262,7 @@
         </is>
       </c>
       <c r="B5883" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="5884">
@@ -59272,7 +59272,7 @@
         </is>
       </c>
       <c r="B5884" t="n">
-        <v>0.767</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="5885">
@@ -59282,7 +59282,7 @@
         </is>
       </c>
       <c r="B5885" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="5886">
@@ -59292,7 +59292,7 @@
         </is>
       </c>
       <c r="B5886" t="n">
-        <v>0.784</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="5887">
@@ -59302,7 +59302,7 @@
         </is>
       </c>
       <c r="B5887" t="n">
-        <v>0.805</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="5888">
@@ -59312,7 +59312,7 @@
         </is>
       </c>
       <c r="B5888" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="5889">
@@ -59322,7 +59322,7 @@
         </is>
       </c>
       <c r="B5889" t="n">
-        <v>0.771</v>
+        <v>0.8090000000000001</v>
       </c>
     </row>
     <row r="5890">
@@ -59332,7 +59332,7 @@
         </is>
       </c>
       <c r="B5890" t="n">
-        <v>0.761</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="5891">
@@ -59342,7 +59342,7 @@
         </is>
       </c>
       <c r="B5891" t="n">
-        <v>0.75</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="5892">
@@ -59352,7 +59352,7 @@
         </is>
       </c>
       <c r="B5892" t="n">
-        <v>0.781</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5893">
@@ -59362,7 +59362,7 @@
         </is>
       </c>
       <c r="B5893" t="n">
-        <v>0.824</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="5894">
@@ -59372,7 +59372,7 @@
         </is>
       </c>
       <c r="B5894" t="n">
-        <v>0.762</v>
+        <v>0.824</v>
       </c>
     </row>
     <row r="5895">
@@ -59382,7 +59382,7 @@
         </is>
       </c>
       <c r="B5895" t="n">
-        <v>0.775</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="5896">
@@ -59392,7 +59392,7 @@
         </is>
       </c>
       <c r="B5896" t="n">
-        <v>0.761</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="5897">
@@ -59402,7 +59402,7 @@
         </is>
       </c>
       <c r="B5897" t="n">
-        <v>0.647</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="5898">
@@ -59412,7 +59412,7 @@
         </is>
       </c>
       <c r="B5898" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="5899">
@@ -59422,7 +59422,7 @@
         </is>
       </c>
       <c r="B5899" t="n">
-        <v>0.422</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="5900">
@@ -59432,7 +59432,7 @@
         </is>
       </c>
       <c r="B5900" t="n">
-        <v>0.44</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="5901">
@@ -59442,7 +59442,7 @@
         </is>
       </c>
       <c r="B5901" t="n">
-        <v>0.429</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5902">
@@ -59452,7 +59452,7 @@
         </is>
       </c>
       <c r="B5902" t="n">
-        <v>0.477</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="5903">
@@ -59462,7 +59462,7 @@
         </is>
       </c>
       <c r="B5903" t="n">
-        <v>0.713</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="5904">
@@ -59472,7 +59472,7 @@
         </is>
       </c>
       <c r="B5904" t="n">
-        <v>0.488</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="5905">
@@ -59482,7 +59482,7 @@
         </is>
       </c>
       <c r="B5905" t="n">
-        <v>0.517</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="5906">
@@ -59492,7 +59492,7 @@
         </is>
       </c>
       <c r="B5906" t="n">
-        <v>0.609</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="5907">
@@ -59502,7 +59502,7 @@
         </is>
       </c>
       <c r="B5907" t="n">
-        <v>0.595</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="5908">
@@ -59512,7 +59512,7 @@
         </is>
       </c>
       <c r="B5908" t="n">
-        <v>0.49</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="5909">
@@ -59522,7 +59522,7 @@
         </is>
       </c>
       <c r="B5909" t="n">
-        <v>0.479</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5910">
@@ -59532,7 +59532,7 @@
         </is>
       </c>
       <c r="B5910" t="n">
-        <v>0.311</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="5911">
@@ -59542,7 +59542,7 @@
         </is>
       </c>
       <c r="B5911" t="n">
-        <v>0.26</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="5912">
@@ -59552,7 +59552,7 @@
         </is>
       </c>
       <c r="B5912" t="n">
-        <v>0.375</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5913">
@@ -59562,7 +59562,7 @@
         </is>
       </c>
       <c r="B5913" t="n">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5914">
@@ -59572,7 +59572,7 @@
         </is>
       </c>
       <c r="B5914" t="n">
-        <v>0.323</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5915">
@@ -59582,7 +59582,7 @@
         </is>
       </c>
       <c r="B5915" t="n">
-        <v>0.414</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="5916">
@@ -59592,7 +59592,7 @@
         </is>
       </c>
       <c r="B5916" t="n">
-        <v>0.421</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="5917">
@@ -59602,7 +59602,7 @@
         </is>
       </c>
       <c r="B5917" t="n">
-        <v>0.364</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="5918">
@@ -59612,7 +59612,7 @@
         </is>
       </c>
       <c r="B5918" t="n">
-        <v>0.41</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="5919">
@@ -59622,7 +59622,7 @@
         </is>
       </c>
       <c r="B5919" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="5920">
@@ -59632,7 +59632,7 @@
         </is>
       </c>
       <c r="B5920" t="n">
-        <v>0.49</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5921">
@@ -59642,7 +59642,7 @@
         </is>
       </c>
       <c r="B5921" t="n">
-        <v>0.411</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5922">
@@ -59652,7 +59652,7 @@
         </is>
       </c>
       <c r="B5922" t="n">
-        <v>0.408</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="5923">
@@ -59662,7 +59662,7 @@
         </is>
       </c>
       <c r="B5923" t="n">
-        <v>0.401</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="5924">
@@ -59672,7 +59672,7 @@
         </is>
       </c>
       <c r="B5924" t="n">
-        <v>0.458</v>
+        <v>0.401</v>
       </c>
     </row>
     <row r="5925">
@@ -59682,7 +59682,7 @@
         </is>
       </c>
       <c r="B5925" t="n">
-        <v>0.503</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="5926">
@@ -59692,7 +59692,7 @@
         </is>
       </c>
       <c r="B5926" t="n">
-        <v>0.505</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="5927">
@@ -59702,7 +59702,7 @@
         </is>
       </c>
       <c r="B5927" t="n">
-        <v>0.487</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="5928">
@@ -59712,7 +59712,7 @@
         </is>
       </c>
       <c r="B5928" t="n">
-        <v>0.497</v>
+        <v>0.487</v>
       </c>
     </row>
     <row r="5929">
@@ -59722,7 +59722,7 @@
         </is>
       </c>
       <c r="B5929" t="n">
-        <v>0.408</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="5930">
@@ -59732,7 +59732,7 @@
         </is>
       </c>
       <c r="B5930" t="n">
-        <v>0.353</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="5931">
@@ -59742,7 +59742,7 @@
         </is>
       </c>
       <c r="B5931" t="n">
-        <v>0.345</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="5932">
@@ -59752,7 +59752,7 @@
         </is>
       </c>
       <c r="B5932" t="n">
-        <v>0.353</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="5933">
@@ -59762,7 +59762,7 @@
         </is>
       </c>
       <c r="B5933" t="n">
-        <v>0.437</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="5934">
@@ -59772,7 +59772,7 @@
         </is>
       </c>
       <c r="B5934" t="n">
-        <v>0.354</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="5935">
@@ -59782,7 +59782,7 @@
         </is>
       </c>
       <c r="B5935" t="n">
-        <v>0.362</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="5936">
@@ -59792,7 +59792,7 @@
         </is>
       </c>
       <c r="B5936" t="n">
-        <v>0.387</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="5937">
@@ -59802,7 +59802,7 @@
         </is>
       </c>
       <c r="B5937" t="n">
-        <v>0.372</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="5938">
@@ -59812,7 +59812,7 @@
         </is>
       </c>
       <c r="B5938" t="n">
-        <v>0.204</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="5939">
@@ -59822,7 +59822,7 @@
         </is>
       </c>
       <c r="B5939" t="n">
-        <v>0.25</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="5940">
@@ -59832,7 +59832,7 @@
         </is>
       </c>
       <c r="B5940" t="n">
-        <v>0.151</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5941">
@@ -59842,7 +59842,7 @@
         </is>
       </c>
       <c r="B5941" t="n">
-        <v>0.353</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="5942">
@@ -59852,7 +59852,7 @@
         </is>
       </c>
       <c r="B5942" t="n">
-        <v>0.253</v>
+        <v>0.353</v>
       </c>
     </row>
     <row r="5943">
@@ -59862,7 +59862,7 @@
         </is>
       </c>
       <c r="B5943" t="n">
-        <v>0.371</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="5944">
@@ -59872,7 +59872,7 @@
         </is>
       </c>
       <c r="B5944" t="n">
-        <v>0.427</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="5945">
@@ -59882,7 +59882,7 @@
         </is>
       </c>
       <c r="B5945" t="n">
-        <v>0.375</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="5946">
@@ -59892,7 +59892,7 @@
         </is>
       </c>
       <c r="B5946" t="n">
-        <v>0.405</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="5947">
@@ -59902,7 +59902,7 @@
         </is>
       </c>
       <c r="B5947" t="n">
-        <v>0.379</v>
+        <v>0.405</v>
       </c>
     </row>
     <row r="5948">
@@ -59912,7 +59912,7 @@
         </is>
       </c>
       <c r="B5948" t="n">
-        <v>0.393</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="5949">
@@ -59922,7 +59922,7 @@
         </is>
       </c>
       <c r="B5949" t="n">
-        <v>0.422</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="5950">
@@ -59932,7 +59932,7 @@
         </is>
       </c>
       <c r="B5950" t="n">
-        <v>0.407</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="5951">
@@ -59942,7 +59942,7 @@
         </is>
       </c>
       <c r="B5951" t="n">
-        <v>0.427</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="5952">
@@ -59952,7 +59952,7 @@
         </is>
       </c>
       <c r="B5952" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="5953">
@@ -59962,7 +59962,7 @@
         </is>
       </c>
       <c r="B5953" t="n">
-        <v>0.491</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="5954">
@@ -59972,7 +59972,7 @@
         </is>
       </c>
       <c r="B5954" t="n">
-        <v>0.659</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="5955">
@@ -59982,7 +59982,7 @@
         </is>
       </c>
       <c r="B5955" t="n">
-        <v>0.656</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="5956">
@@ -60002,7 +60002,7 @@
         </is>
       </c>
       <c r="B5957" t="n">
-        <v>0.673</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="5958">
@@ -60012,7 +60012,7 @@
         </is>
       </c>
       <c r="B5958" t="n">
-        <v>0.669</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="5959">
@@ -60022,7 +60022,7 @@
         </is>
       </c>
       <c r="B5959" t="n">
-        <v>0.644</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="5960">
@@ -60032,7 +60032,7 @@
         </is>
       </c>
       <c r="B5960" t="n">
-        <v>0.674</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="5961">
@@ -60042,7 +60042,7 @@
         </is>
       </c>
       <c r="B5961" t="n">
-        <v>0.644</v>
+        <v>0.674</v>
       </c>
     </row>
     <row r="5962">
@@ -60052,7 +60052,7 @@
         </is>
       </c>
       <c r="B5962" t="n">
-        <v>0.646</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="5963">
@@ -60062,7 +60062,7 @@
         </is>
       </c>
       <c r="B5963" t="n">
-        <v>0.7</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="5964">
@@ -60072,7 +60072,7 @@
         </is>
       </c>
       <c r="B5964" t="n">
-        <v>0.708</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5965">
@@ -60082,7 +60082,7 @@
         </is>
       </c>
       <c r="B5965" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="5966">
@@ -60092,7 +60092,7 @@
         </is>
       </c>
       <c r="B5966" t="n">
-        <v>0.64</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="5967">
@@ -60102,7 +60102,7 @@
         </is>
       </c>
       <c r="B5967" t="n">
-        <v>0.648</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="5968">
@@ -60112,7 +60112,7 @@
         </is>
       </c>
       <c r="B5968" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="5969">
@@ -60122,7 +60122,7 @@
         </is>
       </c>
       <c r="B5969" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="5970">
@@ -60132,7 +60132,7 @@
         </is>
       </c>
       <c r="B5970" t="n">
-        <v>0.846</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5971">
@@ -60142,7 +60142,7 @@
         </is>
       </c>
       <c r="B5971" t="n">
-        <v>0.837</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="5972">
@@ -60152,7 +60152,7 @@
         </is>
       </c>
       <c r="B5972" t="n">
-        <v>0.876</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="5973">
@@ -60162,7 +60162,7 @@
         </is>
       </c>
       <c r="B5973" t="n">
-        <v>0.859</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="5974">
@@ -60172,7 +60172,7 @@
         </is>
       </c>
       <c r="B5974" t="n">
-        <v>0.829</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="5975">
@@ -60182,7 +60182,7 @@
         </is>
       </c>
       <c r="B5975" t="n">
-        <v>0.852</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="5976">
@@ -60192,7 +60192,7 @@
         </is>
       </c>
       <c r="B5976" t="n">
-        <v>0.835</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="5977">
@@ -60202,7 +60202,7 @@
         </is>
       </c>
       <c r="B5977" t="n">
-        <v>0.832</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="5978">
@@ -60212,7 +60212,7 @@
         </is>
       </c>
       <c r="B5978" t="n">
-        <v>0.825</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="5979">
@@ -60222,7 +60222,7 @@
         </is>
       </c>
       <c r="B5979" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="5980">
@@ -60232,7 +60232,7 @@
         </is>
       </c>
       <c r="B5980" t="n">
-        <v>0.881</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="5981">
@@ -60242,7 +60242,7 @@
         </is>
       </c>
       <c r="B5981" t="n">
-        <v>0.865</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="5982">
@@ -60252,7 +60252,7 @@
         </is>
       </c>
       <c r="B5982" t="n">
-        <v>0.89</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="5983">
@@ -60262,7 +60262,7 @@
         </is>
       </c>
       <c r="B5983" t="n">
-        <v>0.949</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5984">
@@ -60272,7 +60272,7 @@
         </is>
       </c>
       <c r="B5984" t="n">
-        <v>0.983</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="5985">
@@ -60282,7 +60282,7 @@
         </is>
       </c>
       <c r="B5985" t="n">
-        <v>0.882</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="5986">
@@ -60292,7 +60292,7 @@
         </is>
       </c>
       <c r="B5986" t="n">
-        <v>0.895</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="5987">
@@ -60302,7 +60302,7 @@
         </is>
       </c>
       <c r="B5987" t="n">
-        <v>0.917</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="5988">
@@ -60312,7 +60312,7 @@
         </is>
       </c>
       <c r="B5988" t="n">
-        <v>0.921</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="5989">
@@ -60322,7 +60322,7 @@
         </is>
       </c>
       <c r="B5989" t="n">
-        <v>0.906</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="5990">
@@ -60332,7 +60332,7 @@
         </is>
       </c>
       <c r="B5990" t="n">
-        <v>0.874</v>
+        <v>0.906</v>
       </c>
     </row>
     <row r="5991">
@@ -60342,7 +60342,7 @@
         </is>
       </c>
       <c r="B5991" t="n">
-        <v>0.819</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="5992">
@@ -60352,7 +60352,7 @@
         </is>
       </c>
       <c r="B5992" t="n">
-        <v>0.774</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="5993">
@@ -60362,7 +60362,7 @@
         </is>
       </c>
       <c r="B5993" t="n">
-        <v>0.791</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="5994">
@@ -60372,7 +60372,7 @@
         </is>
       </c>
       <c r="B5994" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="5995">
@@ -60382,7 +60382,7 @@
         </is>
       </c>
       <c r="B5995" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="5996">
@@ -60392,7 +60392,7 @@
         </is>
       </c>
       <c r="B5996" t="n">
-        <v>0.795</v>
+        <v>0.8110000000000001</v>
       </c>
     </row>
     <row r="5997">
@@ -60402,7 +60402,7 @@
         </is>
       </c>
       <c r="B5997" t="n">
-        <v>0.773</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="5998">
@@ -60412,7 +60412,7 @@
         </is>
       </c>
       <c r="B5998" t="n">
-        <v>0.696</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="5999">
@@ -60422,7 +60422,7 @@
         </is>
       </c>
       <c r="B5999" t="n">
-        <v>0.763</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="6000">
@@ -60432,7 +60432,7 @@
         </is>
       </c>
       <c r="B6000" t="n">
-        <v>0.792</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="6001">
@@ -60442,7 +60442,7 @@
         </is>
       </c>
       <c r="B6001" t="n">
-        <v>0.791</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="6002">
@@ -60452,7 +60452,7 @@
         </is>
       </c>
       <c r="B6002" t="n">
-        <v>0.894</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="6003">
@@ -60462,7 +60462,7 @@
         </is>
       </c>
       <c r="B6003" t="n">
-        <v>0.886</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="6004">
@@ -60472,7 +60472,7 @@
         </is>
       </c>
       <c r="B6004" t="n">
-        <v>0.85</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="6005">
@@ -60482,7 +60482,7 @@
         </is>
       </c>
       <c r="B6005" t="n">
-        <v>0.785</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6006">
@@ -60492,7 +60492,7 @@
         </is>
       </c>
       <c r="B6006" t="n">
-        <v>0.782</v>
+        <v>0.785</v>
       </c>
     </row>
     <row r="6007">
@@ -60502,7 +60502,7 @@
         </is>
       </c>
       <c r="B6007" t="n">
-        <v>0.768</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="6008">
@@ -60522,7 +60522,7 @@
         </is>
       </c>
       <c r="B6009" t="n">
-        <v>0.804</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="6010">
@@ -60532,7 +60532,7 @@
         </is>
       </c>
       <c r="B6010" t="n">
-        <v>0.74</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="6011">
@@ -60542,7 +60542,7 @@
         </is>
       </c>
       <c r="B6011" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="6012">
@@ -60552,7 +60552,7 @@
         </is>
       </c>
       <c r="B6012" t="n">
-        <v>0.739</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="6013">
@@ -60562,7 +60562,7 @@
         </is>
       </c>
       <c r="B6013" t="n">
-        <v>0.702</v>
+        <v>0.739</v>
       </c>
     </row>
     <row r="6014">
@@ -60572,7 +60572,7 @@
         </is>
       </c>
       <c r="B6014" t="n">
-        <v>0.658</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="6015">
@@ -60582,7 +60582,7 @@
         </is>
       </c>
       <c r="B6015" t="n">
-        <v>0.641</v>
+        <v>0.658</v>
       </c>
     </row>
     <row r="6016">
@@ -60592,7 +60592,7 @@
         </is>
       </c>
       <c r="B6016" t="n">
-        <v>0.751</v>
+        <v>0.641</v>
       </c>
     </row>
     <row r="6017">
@@ -60602,7 +60602,7 @@
         </is>
       </c>
       <c r="B6017" t="n">
-        <v>0.759</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="6018">
@@ -60612,7 +60612,7 @@
         </is>
       </c>
       <c r="B6018" t="n">
-        <v>0.787</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="6019">
@@ -60622,7 +60622,7 @@
         </is>
       </c>
       <c r="B6019" t="n">
-        <v>0.775</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="6020">
@@ -60632,7 +60632,7 @@
         </is>
       </c>
       <c r="B6020" t="n">
-        <v>0.771</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="6021">
@@ -60642,7 +60642,7 @@
         </is>
       </c>
       <c r="B6021" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="6022">
@@ -60652,7 +60652,7 @@
         </is>
       </c>
       <c r="B6022" t="n">
-        <v>0.798</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="6023">
@@ -60662,7 +60662,7 @@
         </is>
       </c>
       <c r="B6023" t="n">
-        <v>0.763</v>
+        <v>0.798</v>
       </c>
     </row>
     <row r="6024">
@@ -60672,7 +60672,7 @@
         </is>
       </c>
       <c r="B6024" t="n">
-        <v>0.723</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="6025">
@@ -60682,7 +60682,7 @@
         </is>
       </c>
       <c r="B6025" t="n">
-        <v>0.8</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="6026">
@@ -60692,7 +60692,7 @@
         </is>
       </c>
       <c r="B6026" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6027">
@@ -60702,7 +60702,7 @@
         </is>
       </c>
       <c r="B6027" t="n">
-        <v>0.752</v>
+        <v>0.8129999999999999</v>
       </c>
     </row>
     <row r="6028">
@@ -60712,7 +60712,7 @@
         </is>
       </c>
       <c r="B6028" t="n">
-        <v>0.755</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="6029">
@@ -60722,7 +60722,7 @@
         </is>
       </c>
       <c r="B6029" t="n">
-        <v>0.776</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="6030">
@@ -60732,7 +60732,7 @@
         </is>
       </c>
       <c r="B6030" t="n">
-        <v>0.75</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="6031">
@@ -60742,7 +60742,7 @@
         </is>
       </c>
       <c r="B6031" t="n">
-        <v>0.762</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6032">
@@ -60752,7 +60752,7 @@
         </is>
       </c>
       <c r="B6032" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="6033">
@@ -60762,7 +60762,7 @@
         </is>
       </c>
       <c r="B6033" t="n">
-        <v>0.908</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="6034">
@@ -60772,7 +60772,7 @@
         </is>
       </c>
       <c r="B6034" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="6035">
@@ -60782,7 +60782,7 @@
         </is>
       </c>
       <c r="B6035" t="n">
-        <v>0.928</v>
+        <v>0.9370000000000001</v>
       </c>
     </row>
     <row r="6036">
@@ -60792,7 +60792,7 @@
         </is>
       </c>
       <c r="B6036" t="n">
-        <v>0.958</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="6037">
@@ -60802,7 +60802,7 @@
         </is>
       </c>
       <c r="B6037" t="n">
-        <v>0.969</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="6038">
@@ -60812,7 +60812,7 @@
         </is>
       </c>
       <c r="B6038" t="n">
-        <v>0.917</v>
+        <v>0.969</v>
       </c>
     </row>
     <row r="6039">
@@ -60822,7 +60822,7 @@
         </is>
       </c>
       <c r="B6039" t="n">
-        <v>0.922</v>
+        <v>0.917</v>
       </c>
     </row>
     <row r="6040">
@@ -60832,7 +60832,7 @@
         </is>
       </c>
       <c r="B6040" t="n">
-        <v>0.928</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="6041">
@@ -60842,7 +60842,7 @@
         </is>
       </c>
       <c r="B6041" t="n">
-        <v>0.891</v>
+        <v>0.928</v>
       </c>
     </row>
     <row r="6042">
@@ -60852,7 +60852,7 @@
         </is>
       </c>
       <c r="B6042" t="n">
-        <v>0.886</v>
+        <v>0.891</v>
       </c>
     </row>
     <row r="6043">
@@ -60862,7 +60862,7 @@
         </is>
       </c>
       <c r="B6043" t="n">
-        <v>0.872</v>
+        <v>0.886</v>
       </c>
     </row>
     <row r="6044">
@@ -60872,7 +60872,7 @@
         </is>
       </c>
       <c r="B6044" t="n">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
     </row>
     <row r="6045">
@@ -60882,7 +60882,7 @@
         </is>
       </c>
       <c r="B6045" t="n">
-        <v>0.919</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="6046">
@@ -60892,7 +60892,7 @@
         </is>
       </c>
       <c r="B6046" t="n">
-        <v>0.883</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="6047">
@@ -60902,7 +60902,7 @@
         </is>
       </c>
       <c r="B6047" t="n">
-        <v>0.874</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="6048">
@@ -60912,7 +60912,7 @@
         </is>
       </c>
       <c r="B6048" t="n">
-        <v>0.849</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="6049">
@@ -60922,7 +60922,7 @@
         </is>
       </c>
       <c r="B6049" t="n">
-        <v>0.858</v>
+        <v>0.849</v>
       </c>
     </row>
     <row r="6050">
@@ -60932,7 +60932,7 @@
         </is>
       </c>
       <c r="B6050" t="n">
-        <v>0.888</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="6051">
@@ -60942,7 +60942,7 @@
         </is>
       </c>
       <c r="B6051" t="n">
-        <v>0.854</v>
+        <v>0.888</v>
       </c>
     </row>
     <row r="6052">
@@ -60952,7 +60952,7 @@
         </is>
       </c>
       <c r="B6052" t="n">
-        <v>0.846</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="6053">
@@ -60962,7 +60962,7 @@
         </is>
       </c>
       <c r="B6053" t="n">
-        <v>0.839</v>
+        <v>0.846</v>
       </c>
     </row>
     <row r="6054">
@@ -60972,7 +60972,7 @@
         </is>
       </c>
       <c r="B6054" t="n">
-        <v>0.796</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="6055">
@@ -60982,7 +60982,7 @@
         </is>
       </c>
       <c r="B6055" t="n">
-        <v>0.738</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="6056">
@@ -60992,7 +60992,7 @@
         </is>
       </c>
       <c r="B6056" t="n">
-        <v>0.721</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="6057">
@@ -61002,7 +61002,7 @@
         </is>
       </c>
       <c r="B6057" t="n">
-        <v>0.758</v>
+        <v>0.721</v>
       </c>
     </row>
     <row r="6058">
@@ -61012,7 +61012,7 @@
         </is>
       </c>
       <c r="B6058" t="n">
-        <v>0.777</v>
+        <v>0.758</v>
       </c>
     </row>
     <row r="6059">
@@ -61022,7 +61022,7 @@
         </is>
       </c>
       <c r="B6059" t="n">
-        <v>0.75</v>
+        <v>0.777</v>
       </c>
     </row>
     <row r="6060">
@@ -61032,7 +61032,7 @@
         </is>
       </c>
       <c r="B6060" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6061">
@@ -61042,7 +61042,7 @@
         </is>
       </c>
       <c r="B6061" t="n">
-        <v>0.819</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6062">
@@ -61052,7 +61052,7 @@
         </is>
       </c>
       <c r="B6062" t="n">
-        <v>0.801</v>
+        <v>0.819</v>
       </c>
     </row>
     <row r="6063">
@@ -61062,7 +61062,7 @@
         </is>
       </c>
       <c r="B6063" t="n">
-        <v>0.795</v>
+        <v>0.801</v>
       </c>
     </row>
     <row r="6064">
@@ -61072,7 +61072,7 @@
         </is>
       </c>
       <c r="B6064" t="n">
-        <v>0.851</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="6065">
@@ -61082,7 +61082,7 @@
         </is>
       </c>
       <c r="B6065" t="n">
-        <v>0.839</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="6066">
@@ -61092,7 +61092,7 @@
         </is>
       </c>
       <c r="B6066" t="n">
-        <v>0.865</v>
+        <v>0.839</v>
       </c>
     </row>
     <row r="6067">
@@ -61102,7 +61102,7 @@
         </is>
       </c>
       <c r="B6067" t="n">
-        <v>0.93</v>
+        <v>0.865</v>
       </c>
     </row>
     <row r="6068">
@@ -61112,7 +61112,7 @@
         </is>
       </c>
       <c r="B6068" t="n">
-        <v>0.823</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="6069">
@@ -61122,7 +61122,7 @@
         </is>
       </c>
       <c r="B6069" t="n">
-        <v>0.794</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="6070">
@@ -61132,7 +61132,7 @@
         </is>
       </c>
       <c r="B6070" t="n">
-        <v>0.789</v>
+        <v>0.794</v>
       </c>
     </row>
     <row r="6071">
@@ -61142,7 +61142,7 @@
         </is>
       </c>
       <c r="B6071" t="n">
-        <v>0.791</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="6072">
@@ -61152,7 +61152,7 @@
         </is>
       </c>
       <c r="B6072" t="n">
-        <v>0.762</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="6073">
@@ -61162,7 +61162,7 @@
         </is>
       </c>
       <c r="B6073" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="6074">
@@ -61172,7 +61172,7 @@
         </is>
       </c>
       <c r="B6074" t="n">
-        <v>0.713</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="6075">
@@ -61182,7 +61182,7 @@
         </is>
       </c>
       <c r="B6075" t="n">
-        <v>0.668</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="6076">
@@ -61192,7 +61192,7 @@
         </is>
       </c>
       <c r="B6076" t="n">
-        <v>2.351</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="6077">
@@ -61202,7 +61202,7 @@
         </is>
       </c>
       <c r="B6077" t="n">
-        <v>2.275</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="6078">
@@ -61212,7 +61212,7 @@
         </is>
       </c>
       <c r="B6078" t="n">
-        <v>2.44</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="6079">
@@ -61222,7 +61222,7 @@
         </is>
       </c>
       <c r="B6079" t="n">
-        <v>0.609</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="6080">
@@ -61232,7 +61232,7 @@
         </is>
       </c>
       <c r="B6080" t="n">
-        <v>2.286</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="6081">
@@ -61242,7 +61242,7 @@
         </is>
       </c>
       <c r="B6081" t="n">
-        <v>2.165</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6082">
@@ -61252,7 +61252,7 @@
         </is>
       </c>
       <c r="B6082" t="n">
-        <v>2.225</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="6083">
@@ -61262,7 +61262,7 @@
         </is>
       </c>
       <c r="B6083" t="n">
-        <v>0.556</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="6084">
@@ -61272,7 +61272,7 @@
         </is>
       </c>
       <c r="B6084" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="6085">
@@ -61352,7 +61352,7 @@
         </is>
       </c>
       <c r="B6092" t="n">
-        <v>2.129</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="6093">
@@ -61362,7 +61362,7 @@
         </is>
       </c>
       <c r="B6093" t="n">
-        <v>2.127</v>
+        <v>0.607</v>
       </c>
     </row>
     <row r="6094">
@@ -61372,7 +61372,7 @@
         </is>
       </c>
       <c r="B6094" t="n">
-        <v>2.158</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="6095">
@@ -61382,7 +61382,7 @@
         </is>
       </c>
       <c r="B6095" t="n">
-        <v>2.2</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="6096">
@@ -61392,7 +61392,7 @@
         </is>
       </c>
       <c r="B6096" t="n">
-        <v>2.159</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="6097">
@@ -61402,7 +61402,7 @@
         </is>
       </c>
       <c r="B6097" t="n">
-        <v>2.247</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="6098">
@@ -61412,7 +61412,7 @@
         </is>
       </c>
       <c r="B6098" t="n">
-        <v>2.266</v>
+        <v>0.706</v>
       </c>
     </row>
     <row r="6099">
@@ -61422,7 +61422,7 @@
         </is>
       </c>
       <c r="B6099" t="n">
-        <v>2.317</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6100">
@@ -61432,7 +61432,7 @@
         </is>
       </c>
       <c r="B6100" t="n">
-        <v>2.311</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="6101">
@@ -61442,7 +61442,7 @@
         </is>
       </c>
       <c r="B6101" t="n">
-        <v>2.313</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="6102">
@@ -61452,7 +61452,7 @@
         </is>
       </c>
       <c r="B6102" t="n">
-        <v>2.29</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="6103">
@@ -61462,7 +61462,7 @@
         </is>
       </c>
       <c r="B6103" t="n">
-        <v>2.333</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="6104">
@@ -61472,7 +61472,7 @@
         </is>
       </c>
       <c r="B6104" t="n">
-        <v>2.301</v>
+        <v>0.711</v>
       </c>
     </row>
     <row r="6105">
@@ -61482,7 +61482,7 @@
         </is>
       </c>
       <c r="B6105" t="n">
-        <v>2.338</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="6106">
@@ -61492,7 +61492,7 @@
         </is>
       </c>
       <c r="B6106" t="n">
-        <v>2.269</v>
+        <v>0.678</v>
       </c>
     </row>
     <row r="6107">
@@ -61502,7 +61502,7 @@
         </is>
       </c>
       <c r="B6107" t="n">
-        <v>2.277</v>
+        <v>0.667</v>
       </c>
     </row>
     <row r="6108">
@@ -61512,7 +61512,7 @@
         </is>
       </c>
       <c r="B6108" t="n">
-        <v>2.26</v>
+        <v>0.609</v>
       </c>
     </row>
     <row r="6109">
@@ -61522,7 +61522,7 @@
         </is>
       </c>
       <c r="B6109" t="n">
-        <v>2.164</v>
+        <v>0.591</v>
       </c>
     </row>
     <row r="6110">
@@ -61532,7 +61532,7 @@
         </is>
       </c>
       <c r="B6110" t="n">
-        <v>2.058</v>
+        <v>0.617</v>
       </c>
     </row>
     <row r="6111">
@@ -61542,7 +61542,7 @@
         </is>
       </c>
       <c r="B6111" t="n">
-        <v>2.176</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="6112">
@@ -61552,7 +61552,7 @@
         </is>
       </c>
       <c r="B6112" t="n">
-        <v>2.028</v>
+        <v>0.529</v>
       </c>
     </row>
     <row r="6113">
@@ -61562,7 +61562,7 @@
         </is>
       </c>
       <c r="B6113" t="n">
-        <v>2.027</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="6114">
@@ -61572,7 +61572,7 @@
         </is>
       </c>
       <c r="B6114" t="n">
-        <v>2.025</v>
+        <v>0.585</v>
       </c>
     </row>
     <row r="6115">
@@ -61582,7 +61582,7 @@
         </is>
       </c>
       <c r="B6115" t="n">
-        <v>2.074</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="6116">
@@ -61592,7 +61592,7 @@
         </is>
       </c>
       <c r="B6116" t="n">
-        <v>2.184</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="6117">
@@ -61602,7 +61602,7 @@
         </is>
       </c>
       <c r="B6117" t="n">
-        <v>2.178</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="6118">
@@ -61612,7 +61612,7 @@
         </is>
       </c>
       <c r="B6118" t="n">
-        <v>2.293</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="6119">
@@ -61622,7 +61622,7 @@
         </is>
       </c>
       <c r="B6119" t="n">
-        <v>2.381</v>
+        <v>0.781</v>
       </c>
     </row>
     <row r="6120">
@@ -61632,7 +61632,7 @@
         </is>
       </c>
       <c r="B6120" t="n">
-        <v>2.453</v>
+        <v>0.779</v>
       </c>
     </row>
     <row r="6121">
@@ -61642,7 +61642,7 @@
         </is>
       </c>
       <c r="B6121" t="n">
-        <v>2.444</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6122">
@@ -61652,7 +61652,17 @@
         </is>
       </c>
       <c r="B6122" t="n">
-        <v>2.463</v>
+        <v>0.823</v>
+      </c>
+    </row>
+    <row r="6123">
+      <c r="A6123" t="inlineStr">
+        <is>
+          <t>2025-10-07</t>
+        </is>
+      </c>
+      <c r="B6123" t="n">
+        <v>0.823</v>
       </c>
     </row>
   </sheetData>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6123"/>
+  <dimension ref="A1:B6124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61665,6 +61665,14 @@
         <v>0.823</v>
       </c>
     </row>
+    <row r="6124">
+      <c r="A6124" t="inlineStr">
+        <is>
+          <t>2025-10-08</t>
+        </is>
+      </c>
+      <c r="B6124" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6124"/>
+  <dimension ref="A1:B6125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61673,6 +61673,14 @@
       </c>
       <c r="B6124" t="inlineStr"/>
     </row>
+    <row r="6125">
+      <c r="A6125" t="inlineStr">
+        <is>
+          <t>2025-10-09</t>
+        </is>
+      </c>
+      <c r="B6125" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6127"/>
+  <dimension ref="A1:B6128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61705,6 +61705,16 @@
         <v>2.006</v>
       </c>
     </row>
+    <row r="6128">
+      <c r="A6128" t="inlineStr">
+        <is>
+          <t>2025-10-12</t>
+        </is>
+      </c>
+      <c r="B6128" t="n">
+        <v>2.154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6128"/>
+  <dimension ref="A1:B6129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61715,6 +61715,16 @@
         <v>2.154</v>
       </c>
     </row>
+    <row r="6129">
+      <c r="A6129" t="inlineStr">
+        <is>
+          <t>2025-10-13</t>
+        </is>
+      </c>
+      <c r="B6129" t="n">
+        <v>2.158</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6129"/>
+  <dimension ref="A1:B6130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61725,6 +61725,16 @@
         <v>2.158</v>
       </c>
     </row>
+    <row r="6130">
+      <c r="A6130" t="inlineStr">
+        <is>
+          <t>2025-10-14</t>
+        </is>
+      </c>
+      <c r="B6130" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6130"/>
+  <dimension ref="A1:B6131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61735,6 +61735,16 @@
         <v>2.08</v>
       </c>
     </row>
+    <row r="6131">
+      <c r="A6131" t="inlineStr">
+        <is>
+          <t>2025-10-15</t>
+        </is>
+      </c>
+      <c r="B6131" t="n">
+        <v>1.984</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6131"/>
+  <dimension ref="A1:B6132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61745,6 +61745,16 @@
         <v>1.984</v>
       </c>
     </row>
+    <row r="6132">
+      <c r="A6132" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B6132" t="n">
+        <v>1.887</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6132"/>
+  <dimension ref="A1:B6133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61755,6 +61755,16 @@
         <v>1.887</v>
       </c>
     </row>
+    <row r="6133">
+      <c r="A6133" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B6133" t="n">
+        <v>1.83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6133"/>
+  <dimension ref="A1:B6135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61765,6 +61765,26 @@
         <v>1.83</v>
       </c>
     </row>
+    <row r="6134">
+      <c r="A6134" t="inlineStr">
+        <is>
+          <t>2025-10-18</t>
+        </is>
+      </c>
+      <c r="B6134" t="n">
+        <v>1.847</v>
+      </c>
+    </row>
+    <row r="6135">
+      <c r="A6135" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B6135" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6135"/>
+  <dimension ref="A1:B6137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61785,6 +61785,26 @@
         <v>1.9</v>
       </c>
     </row>
+    <row r="6136">
+      <c r="A6136" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B6136" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
+    <row r="6137">
+      <c r="A6137" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B6137" t="n">
+        <v>1.895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6137"/>
+  <dimension ref="A1:B6138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61805,6 +61805,16 @@
         <v>1.895</v>
       </c>
     </row>
+    <row r="6138">
+      <c r="A6138" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B6138" t="n">
+        <v>1.854</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6138"/>
+  <dimension ref="A1:B6139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61815,6 +61815,16 @@
         <v>1.854</v>
       </c>
     </row>
+    <row r="6139">
+      <c r="A6139" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B6139" t="n">
+        <v>1.935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6139"/>
+  <dimension ref="A1:B6140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61825,6 +61825,16 @@
         <v>1.935</v>
       </c>
     </row>
+    <row r="6140">
+      <c r="A6140" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B6140" t="n">
+        <v>1.967</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6140"/>
+  <dimension ref="A1:B6141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61835,6 +61835,16 @@
         <v>1.967</v>
       </c>
     </row>
+    <row r="6141">
+      <c r="A6141" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B6141" t="n">
+        <v>1.985</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6141"/>
+  <dimension ref="A1:B6144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61845,6 +61845,34 @@
         <v>1.985</v>
       </c>
     </row>
+    <row r="6142">
+      <c r="A6142" t="inlineStr">
+        <is>
+          <t>2025-10-26</t>
+        </is>
+      </c>
+      <c r="B6142" t="n">
+        <v>2.086</v>
+      </c>
+    </row>
+    <row r="6143">
+      <c r="A6143" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B6143" t="n">
+        <v>2.065</v>
+      </c>
+    </row>
+    <row r="6144">
+      <c r="A6144" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B6144" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6144"/>
+  <dimension ref="A1:B6145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61871,7 +61871,19 @@
           <t>2025-10-28</t>
         </is>
       </c>
-      <c r="B6144" t="inlineStr"/>
+      <c r="B6144" t="n">
+        <v>2.057</v>
+      </c>
+    </row>
+    <row r="6145">
+      <c r="A6145" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B6145" t="n">
+        <v>1.948</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6145"/>
+  <dimension ref="A1:B6146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61885,6 +61885,16 @@
         <v>1.948</v>
       </c>
     </row>
+    <row r="6146">
+      <c r="A6146" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B6146" t="n">
+        <v>1.947</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6146"/>
+  <dimension ref="A1:B6147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61895,6 +61895,16 @@
         <v>1.947</v>
       </c>
     </row>
+    <row r="6147">
+      <c r="A6147" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B6147" t="n">
+        <v>1.885</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6147"/>
+  <dimension ref="A1:B6148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61905,6 +61905,16 @@
         <v>1.885</v>
       </c>
     </row>
+    <row r="6148">
+      <c r="A6148" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="B6148" t="n">
+        <v>1.929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6148"/>
+  <dimension ref="A1:B6149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61915,6 +61915,16 @@
         <v>1.929</v>
       </c>
     </row>
+    <row r="6149">
+      <c r="A6149" t="inlineStr">
+        <is>
+          <t>2025-11-02</t>
+        </is>
+      </c>
+      <c r="B6149" t="n">
+        <v>1.941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6149"/>
+  <dimension ref="A1:B6150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61925,6 +61925,16 @@
         <v>1.941</v>
       </c>
     </row>
+    <row r="6150">
+      <c r="A6150" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B6150" t="n">
+        <v>1.962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6150"/>
+  <dimension ref="A1:B6152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61935,6 +61935,26 @@
         <v>1.962</v>
       </c>
     </row>
+    <row r="6151">
+      <c r="A6151" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B6151" t="n">
+        <v>1.814</v>
+      </c>
+    </row>
+    <row r="6152">
+      <c r="A6152" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B6152" t="n">
+        <v>1.624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6152"/>
+  <dimension ref="A1:B6153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61955,6 +61955,16 @@
         <v>1.624</v>
       </c>
     </row>
+    <row r="6153">
+      <c r="A6153" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B6153" t="n">
+        <v>1.718</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6153"/>
+  <dimension ref="A1:B6162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61965,6 +61965,96 @@
         <v>1.718</v>
       </c>
     </row>
+    <row r="6154">
+      <c r="A6154" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B6154" t="n">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="6155">
+      <c r="A6155" t="inlineStr">
+        <is>
+          <t>2025-11-08</t>
+        </is>
+      </c>
+      <c r="B6155" t="n">
+        <v>1.693</v>
+      </c>
+    </row>
+    <row r="6156">
+      <c r="A6156" t="inlineStr">
+        <is>
+          <t>2025-11-09</t>
+        </is>
+      </c>
+      <c r="B6156" t="n">
+        <v>1.657</v>
+      </c>
+    </row>
+    <row r="6157">
+      <c r="A6157" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B6157" t="n">
+        <v>1.732</v>
+      </c>
+    </row>
+    <row r="6158">
+      <c r="A6158" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B6158" t="n">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="6159">
+      <c r="A6159" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B6159" t="n">
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="6160">
+      <c r="A6160" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B6160" t="n">
+        <v>1.618</v>
+      </c>
+    </row>
+    <row r="6161">
+      <c r="A6161" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B6161" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6162">
+      <c r="A6162" t="inlineStr">
+        <is>
+          <t>2025-11-15</t>
+        </is>
+      </c>
+      <c r="B6162" t="n">
+        <v>1.365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6162"/>
+  <dimension ref="A1:B6163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62055,6 +62055,16 @@
         <v>1.365</v>
       </c>
     </row>
+    <row r="6163">
+      <c r="A6163" t="inlineStr">
+        <is>
+          <t>2025-11-16</t>
+        </is>
+      </c>
+      <c r="B6163" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6163"/>
+  <dimension ref="A1:B6165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62065,6 +62065,26 @@
         <v>1.41</v>
       </c>
     </row>
+    <row r="6164">
+      <c r="A6164" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B6164" t="n">
+        <v>1.363</v>
+      </c>
+    </row>
+    <row r="6165">
+      <c r="A6165" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B6165" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6165"/>
+  <dimension ref="A1:B6171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62085,6 +62085,66 @@
         <v>1.29</v>
       </c>
     </row>
+    <row r="6166">
+      <c r="A6166" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B6166" t="n">
+        <v>1.312</v>
+      </c>
+    </row>
+    <row r="6167">
+      <c r="A6167" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B6167" t="n">
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="6168">
+      <c r="A6168" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B6168" t="n">
+        <v>1.093</v>
+      </c>
+    </row>
+    <row r="6169">
+      <c r="A6169" t="inlineStr">
+        <is>
+          <t>2025-11-22</t>
+        </is>
+      </c>
+      <c r="B6169" t="n">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="6170">
+      <c r="A6170" t="inlineStr">
+        <is>
+          <t>2025-11-23</t>
+        </is>
+      </c>
+      <c r="B6170" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="6171">
+      <c r="A6171" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B6171" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6171"/>
+  <dimension ref="A1:B6175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62145,6 +62145,46 @@
         <v>1.092</v>
       </c>
     </row>
+    <row r="6172">
+      <c r="A6172" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B6172" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="6173">
+      <c r="A6173" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B6173" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="6174">
+      <c r="A6174" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+      <c r="B6174" t="n">
+        <v>1.208</v>
+      </c>
+    </row>
+    <row r="6175">
+      <c r="A6175" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B6175" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6175"/>
+  <dimension ref="A1:B6176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62185,6 +62185,16 @@
         <v>1.24</v>
       </c>
     </row>
+    <row r="6176">
+      <c r="A6176" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+      <c r="B6176" t="n">
+        <v>1.227</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6176"/>
+  <dimension ref="A1:B6177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62195,6 +62195,16 @@
         <v>1.227</v>
       </c>
     </row>
+    <row r="6177">
+      <c r="A6177" t="inlineStr">
+        <is>
+          <t>2025-11-30</t>
+        </is>
+      </c>
+      <c r="B6177" t="n">
+        <v>1.223</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6177"/>
+  <dimension ref="A1:B6178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62205,6 +62205,16 @@
         <v>1.223</v>
       </c>
     </row>
+    <row r="6178">
+      <c r="A6178" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B6178" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6178"/>
+  <dimension ref="A1:B6179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62215,6 +62215,16 @@
         <v>1.21</v>
       </c>
     </row>
+    <row r="6179">
+      <c r="A6179" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B6179" t="n">
+        <v>1.066</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6179"/>
+  <dimension ref="A1:B6180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62225,6 +62225,16 @@
         <v>1.066</v>
       </c>
     </row>
+    <row r="6180">
+      <c r="A6180" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B6180" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6180"/>
+  <dimension ref="A1:B6181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62235,6 +62235,16 @@
         <v>1.24</v>
       </c>
     </row>
+    <row r="6181">
+      <c r="A6181" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B6181" t="n">
+        <v>1.319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6181"/>
+  <dimension ref="A1:B6183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62245,6 +62245,26 @@
         <v>1.319</v>
       </c>
     </row>
+    <row r="6182">
+      <c r="A6182" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B6182" t="n">
+        <v>1.267</v>
+      </c>
+    </row>
+    <row r="6183">
+      <c r="A6183" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+      <c r="B6183" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6183"/>
+  <dimension ref="A1:B6186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62265,6 +62265,36 @@
         <v>1.17</v>
       </c>
     </row>
+    <row r="6184">
+      <c r="A6184" t="inlineStr">
+        <is>
+          <t>2025-12-07</t>
+        </is>
+      </c>
+      <c r="B6184" t="n">
+        <v>1.158</v>
+      </c>
+    </row>
+    <row r="6185">
+      <c r="A6185" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B6185" t="n">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="6186">
+      <c r="A6186" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B6186" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6186"/>
+  <dimension ref="A1:B6188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62295,6 +62295,26 @@
         <v>1.215</v>
       </c>
     </row>
+    <row r="6187">
+      <c r="A6187" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B6187" t="n">
+        <v>1.289</v>
+      </c>
+    </row>
+    <row r="6188">
+      <c r="A6188" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B6188" t="n">
+        <v>1.259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6188"/>
+  <dimension ref="A1:B6191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62315,6 +62315,36 @@
         <v>1.259</v>
       </c>
     </row>
+    <row r="6189">
+      <c r="A6189" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B6189" t="n">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="6190">
+      <c r="A6190" t="inlineStr">
+        <is>
+          <t>2025-12-13</t>
+        </is>
+      </c>
+      <c r="B6190" t="n">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="6191">
+      <c r="A6191" t="inlineStr">
+        <is>
+          <t>2025-12-14</t>
+        </is>
+      </c>
+      <c r="B6191" t="n">
+        <v>1.197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6191"/>
+  <dimension ref="A1:B6193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62345,6 +62345,26 @@
         <v>1.197</v>
       </c>
     </row>
+    <row r="6192">
+      <c r="A6192" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B6192" t="n">
+        <v>1.126</v>
+      </c>
+    </row>
+    <row r="6193">
+      <c r="A6193" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B6193" t="n">
+        <v>1.064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6193"/>
+  <dimension ref="A1:B6194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62365,6 +62365,16 @@
         <v>1.064</v>
       </c>
     </row>
+    <row r="6194">
+      <c r="A6194" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B6194" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6194"/>
+  <dimension ref="A1:B6195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62375,6 +62375,16 @@
         <v>1.11</v>
       </c>
     </row>
+    <row r="6195">
+      <c r="A6195" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B6195" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6195"/>
+  <dimension ref="A1:B6198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62385,6 +62385,36 @@
         <v>1.054</v>
       </c>
     </row>
+    <row r="6196">
+      <c r="A6196" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B6196" t="n">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="6197">
+      <c r="A6197" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+      <c r="B6197" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="6198">
+      <c r="A6198" t="inlineStr">
+        <is>
+          <t>2025-12-21</t>
+        </is>
+      </c>
+      <c r="B6198" t="n">
+        <v>1.134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6198"/>
+  <dimension ref="A1:B6202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62415,6 +62415,46 @@
         <v>1.134</v>
       </c>
     </row>
+    <row r="6199">
+      <c r="A6199" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B6199" t="n">
+        <v>1.138</v>
+      </c>
+    </row>
+    <row r="6200">
+      <c r="A6200" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B6200" t="n">
+        <v>1.136</v>
+      </c>
+    </row>
+    <row r="6201">
+      <c r="A6201" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B6201" t="n">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="6202">
+      <c r="A6202" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="B6202" t="n">
+        <v>1.107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6202"/>
+  <dimension ref="A1:B6205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62455,6 +62455,36 @@
         <v>1.107</v>
       </c>
     </row>
+    <row r="6203">
+      <c r="A6203" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B6203" t="n">
+        <v>1.094</v>
+      </c>
+    </row>
+    <row r="6204">
+      <c r="A6204" t="inlineStr">
+        <is>
+          <t>2025-12-27</t>
+        </is>
+      </c>
+      <c r="B6204" t="n">
+        <v>1.096</v>
+      </c>
+    </row>
+    <row r="6205">
+      <c r="A6205" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="B6205" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_mvrvz.xlsx
+++ b/data_cripto/btc_mvrvz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6205"/>
+  <dimension ref="A1:B6207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62485,6 +62485,26 @@
         <v>1.114</v>
       </c>
     </row>
+    <row r="6206">
+      <c r="A6206" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B6206" t="n">
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="6207">
+      <c r="A6207" t="inlineStr">
+        <is>
+          <t>2025-12-30</t>
+        </is>
+      </c>
+      <c r="B6207" t="n">
+        <v>1.091</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
